--- a/bayes_net/graphs.xlsx
+++ b/bayes_net/graphs.xlsx
@@ -947,11 +947,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1818856816"/>
-        <c:axId val="1818859136"/>
+        <c:axId val="1762581888"/>
+        <c:axId val="1912950304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1818856816"/>
+        <c:axId val="1762581888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1818859136"/>
+        <c:crossAx val="1912950304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1818859136"/>
+        <c:axId val="1912950304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,6 +1021,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1051,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1818856816"/>
+        <c:crossAx val="1762581888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1140,7 +1141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1958,11 +1958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1850653392"/>
-        <c:axId val="1851978560"/>
+        <c:axId val="1812887408"/>
+        <c:axId val="1846372064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1850653392"/>
+        <c:axId val="1812887408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1851978560"/>
+        <c:crossAx val="1846372064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2012,7 +2012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1851978560"/>
+        <c:axId val="1846372064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,6 +2032,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2062,7 +2063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850653392"/>
+        <c:crossAx val="1812887408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2151,7 +2152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2969,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1895404832"/>
-        <c:axId val="1894922512"/>
+        <c:axId val="1814922848"/>
+        <c:axId val="1814133232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1895404832"/>
+        <c:axId val="1814922848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894922512"/>
+        <c:crossAx val="1814133232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3023,7 +3023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1894922512"/>
+        <c:axId val="1814133232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,7 +3073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895404832"/>
+        <c:crossAx val="1814922848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3137,6 +3137,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3955,11 +3980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1723924992"/>
-        <c:axId val="1812847136"/>
+        <c:axId val="1727928368"/>
+        <c:axId val="1727989328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1723924992"/>
+        <c:axId val="1727928368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4001,7 +4026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812847136"/>
+        <c:crossAx val="1727989328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4009,7 +4034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812847136"/>
+        <c:axId val="1727989328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,7 +4084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723924992"/>
+        <c:crossAx val="1727928368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4123,6 +4148,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4941,11 +4991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1893108032"/>
-        <c:axId val="1893558528"/>
+        <c:axId val="1845968048"/>
+        <c:axId val="1845764128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1893108032"/>
+        <c:axId val="1845968048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893558528"/>
+        <c:crossAx val="1845764128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4995,7 +5045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1893558528"/>
+        <c:axId val="1845764128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,7 +5095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893108032"/>
+        <c:crossAx val="1845968048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8294,7 +8344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="BC1" sqref="BC1:BC249"/>
     </sheetView>
   </sheetViews>
